--- a/Examples/src/DataBase/【m2o】MySQL_DBユーザー一覧.xlsx
+++ b/Examples/src/DataBase/【m2o】MySQL_DBユーザー一覧.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6593"/>
@@ -12,14 +12,14 @@
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="96" discardImageEditData="1"/>
+      <x14:workbookPr defaultImageDpi="32767" discardImageEditData="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
   <si>
     <t>若生　良太</t>
     <rPh sb="0" eb="2">
@@ -709,12 +709,127 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>moeiwast_user16</t>
+  </si>
+  <si>
+    <t>moeiwast_user17</t>
+  </si>
+  <si>
+    <t>moeiwast_user18</t>
+  </si>
+  <si>
+    <t>zaq12wsx_user16</t>
+  </si>
+  <si>
+    <t>zaq12wsx_user17</t>
+  </si>
+  <si>
+    <t>zaq12wsx_user18</t>
+  </si>
+  <si>
+    <t>2016/07/18</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>木村　悠希</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>露木　麻美</t>
+    <rPh sb="0" eb="2">
+      <t>ツユキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アサミ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>柳沼　諒</t>
+    <rPh sb="0" eb="2">
+      <t>ヤギヌマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※サーバーDB時の値。ローカルDB使用時はインストール時に指定した値。</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※サーバーDB時の値。ローカルDB使用時は「localhost」を指定する。</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※サーバーDB時の値。ローカルDB使用時は「jdbc:mysql://localhost:3306/moeiwast_eiwatest_DB01」を指定する。</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,8 +894,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -835,6 +963,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -865,7 +999,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1134031</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>68287</xdr:rowOff>
+      <xdr:rowOff>68286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -903,7 +1037,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1134031</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>68286</xdr:rowOff>
+      <xdr:rowOff>68287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -941,7 +1075,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1134031</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>155202</xdr:rowOff>
+      <xdr:rowOff>155203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,7 +1113,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1353078</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>203607</xdr:rowOff>
+      <xdr:rowOff>203608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1017,7 +1151,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>39691</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>19697</xdr:rowOff>
+      <xdr:rowOff>19698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1461,6 +1595,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1496,6 +1647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2068,34 +2236,76 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+    <row r="20" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
+      <c r="B20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+    <row r="21" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
+      <c r="B21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+    <row r="22" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
+      <c r="B22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.75">
@@ -2139,6 +2349,11 @@
         <v>82</v>
       </c>
     </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="H34" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G36" s="1" t="s">
         <v>90</v>
@@ -2147,6 +2362,11 @@
         <v>91</v>
       </c>
     </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="H37" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G38" s="1" t="s">
         <v>87</v>
@@ -2160,6 +2380,9 @@
         <v>39</v>
       </c>
     </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="H42" s="8"/>
+    </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B77" s="2" t="s">
         <v>74</v>
@@ -2203,6 +2426,11 @@
       </c>
       <c r="H102" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="H103" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.75">

--- a/Examples/src/DataBase/【m2o】MySQL_DBユーザー一覧.xlsx
+++ b/Examples/src/DataBase/【m2o】MySQL_DBユーザー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6593"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6593" tabRatio="811"/>
   </bookViews>
   <sheets>
     <sheet name="DBユーザ一覧とツール設定" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>若生　良太</t>
     <rPh sb="0" eb="2">
@@ -467,10 +467,6 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moeiwast_user02</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>jdbc:mysql://m2o-eiwa.1strentalserver.info:3306/moeiwast_eiwatest_DB01</t>
@@ -528,10 +524,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>zaq12wsx_user02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>moeiwast_eiwatest_DB01</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -822,6 +814,43 @@
     <rPh sb="74" eb="76">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>moeiwast_user02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>zaq12wsx_user02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>山田　勝人</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カツヒト</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2016/07/19</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>moeiwast_user19</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>zaq12wsx_user19</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1113,7 +1142,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1353078</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>203608</xdr:rowOff>
+      <xdr:rowOff>203607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1151,7 +1180,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>39691</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>19698</xdr:rowOff>
+      <xdr:rowOff>19697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1189,7 +1218,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>337869</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>91911</xdr:rowOff>
+      <xdr:rowOff>91910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1904,16 +1933,16 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>32</v>
@@ -2024,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
@@ -2238,84 +2267,98 @@
     </row>
     <row r="20" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
       <c r="B21" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+    <row r="23" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.8">
+      <c r="B23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.75">
@@ -2330,51 +2373,51 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.75">
       <c r="G32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G33" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.75">
       <c r="H34" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.75">
       <c r="H37" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>39</v>
@@ -2390,72 +2433,72 @@
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G86" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G100" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G101" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G102" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.75">
       <c r="H103" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G105" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G121" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.75">
       <c r="H135" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.75">
       <c r="H136" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.75">
       <c r="H137" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
